--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1353047.593991765</v>
+        <v>-1355856.409698502</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.1603092314733</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>317.5336584557159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>127.8799231645347</v>
+        <v>115.967551925417</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.28980726757987</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>160.1994850723023</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.7173697524019</v>
       </c>
       <c r="U2" t="n">
         <v>251.1742586451435</v>
       </c>
       <c r="V2" t="n">
-        <v>135.485539109103</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>193.5500841476918</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>128.1588741600925</v>
       </c>
       <c r="G3" t="n">
         <v>136.1972169735137</v>
@@ -756,7 +756,7 @@
         <v>101.164597667581</v>
       </c>
       <c r="I3" t="n">
-        <v>33.01938019215364</v>
+        <v>49.929718425445</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.98666974321216</v>
+        <v>28.98666974321223</v>
       </c>
       <c r="S3" t="n">
         <v>150.3911478434578</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.7767398400725</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>109.4754683889949</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0299597861359</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>126.5499954250393</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.689758882002977</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>134.0824567889061</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>25.27206812708899</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.8394148919928</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2666101070915</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>173.7334149956794</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>234.5176684163641</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>65.35183710337542</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>184.6739744009185</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>72.30411320648238</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>34.12858692532512</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>11.69271657799861</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>64.82323998577544</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.421048022933</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>96.04906679049382</v>
+        <v>40.53421095546783</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>217.8886059122772</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>29.959001240238</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>41.16673120696609</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>110.2476086063439</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>102.5041944721331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1288.909790875705</v>
+        <v>897.0680764255801</v>
       </c>
       <c r="C2" t="n">
-        <v>919.9472739352937</v>
+        <v>528.1055594851684</v>
       </c>
       <c r="D2" t="n">
-        <v>919.9472739352937</v>
+        <v>169.8398608784179</v>
       </c>
       <c r="E2" t="n">
-        <v>919.9472739352937</v>
+        <v>169.8398608784179</v>
       </c>
       <c r="F2" t="n">
-        <v>919.9472739352937</v>
+        <v>169.8398608784179</v>
       </c>
       <c r="G2" t="n">
-        <v>502.6136282469367</v>
+        <v>169.8398608784179</v>
       </c>
       <c r="H2" t="n">
-        <v>181.872559099749</v>
+        <v>169.8398608784179</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>220.8886863935819</v>
+        <v>220.8886863935818</v>
       </c>
       <c r="K2" t="n">
-        <v>593.7033549744692</v>
+        <v>272.7993965290158</v>
       </c>
       <c r="L2" t="n">
-        <v>1108.489545419346</v>
+        <v>787.5855869738925</v>
       </c>
       <c r="M2" t="n">
-        <v>1697.894916442143</v>
+        <v>1376.990957996689</v>
       </c>
       <c r="N2" t="n">
-        <v>2210.241754096426</v>
+        <v>1724.860694309847</v>
       </c>
       <c r="O2" t="n">
-        <v>2339.809837632989</v>
+        <v>2231.420957296527</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.892198408932</v>
+        <v>2626.084039162238</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.045976980643</v>
+        <v>2619.60172721541</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2457.784065526216</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.045976980643</v>
+        <v>2241.907934463184</v>
       </c>
       <c r="U2" t="n">
-        <v>2381.334604611811</v>
+        <v>1988.196562094352</v>
       </c>
       <c r="V2" t="n">
-        <v>2244.480524703626</v>
+        <v>1657.133674750782</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.975389200907</v>
+        <v>1657.133674750782</v>
       </c>
       <c r="X2" t="n">
-        <v>1675.509630939827</v>
+        <v>1283.667916489702</v>
       </c>
       <c r="Y2" t="n">
-        <v>1675.509630939827</v>
+        <v>1283.667916489702</v>
       </c>
     </row>
     <row r="3">
@@ -4395,37 +4395,37 @@
         <v>472.34779552611</v>
       </c>
       <c r="F3" t="n">
-        <v>325.813237552995</v>
+        <v>342.8943872835924</v>
       </c>
       <c r="G3" t="n">
-        <v>188.2402911151024</v>
+        <v>205.3214408456998</v>
       </c>
       <c r="H3" t="n">
-        <v>86.05382882461653</v>
+        <v>103.1349785552139</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>159.179021593283</v>
       </c>
       <c r="K3" t="n">
-        <v>361.3097986467155</v>
+        <v>467.7879007003855</v>
       </c>
       <c r="L3" t="n">
-        <v>837.6769175941824</v>
+        <v>944.1550196478522</v>
       </c>
       <c r="M3" t="n">
-        <v>1445.554098260752</v>
+        <v>1552.032200314421</v>
       </c>
       <c r="N3" t="n">
-        <v>2085.226992492019</v>
+        <v>1892.606486350657</v>
       </c>
       <c r="O3" t="n">
-        <v>2214.063346134942</v>
+        <v>2021.44283999358</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.410953057224</v>
+        <v>2420.790446915861</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>668.2991511840728</v>
+        <v>163.2822007406178</v>
       </c>
       <c r="C4" t="n">
-        <v>499.3629682561659</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>349.2463288438302</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>349.2463288438302</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>349.2463288438302</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>180.5291977467232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>180.5291977467232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
         <v>52.70091953961285</v>
@@ -4492,46 +4492,46 @@
         <v>141.1905938405665</v>
       </c>
       <c r="L4" t="n">
-        <v>309.9533456201951</v>
+        <v>309.9533456201949</v>
       </c>
       <c r="M4" t="n">
-        <v>498.2791281824881</v>
+        <v>498.2791281824879</v>
       </c>
       <c r="N4" t="n">
-        <v>687.5615609861241</v>
+        <v>687.5615609861236</v>
       </c>
       <c r="O4" t="n">
-        <v>846.3782284153087</v>
+        <v>846.3782284153082</v>
       </c>
       <c r="P4" t="n">
-        <v>958.7526415992057</v>
+        <v>958.752641599205</v>
       </c>
       <c r="Q4" t="n">
-        <v>953.0054104052633</v>
+        <v>958.752641599205</v>
       </c>
       <c r="R4" t="n">
-        <v>817.5685853659642</v>
+        <v>958.752641599205</v>
       </c>
       <c r="S4" t="n">
-        <v>817.5685853659642</v>
+        <v>933.2253000566909</v>
       </c>
       <c r="T4" t="n">
-        <v>817.5685853659642</v>
+        <v>707.1248809738698</v>
       </c>
       <c r="U4" t="n">
-        <v>817.5685853659642</v>
+        <v>417.9666889465047</v>
       </c>
       <c r="V4" t="n">
-        <v>817.5685853659642</v>
+        <v>163.2822007406178</v>
       </c>
       <c r="W4" t="n">
-        <v>817.5685853659642</v>
+        <v>163.2822007406178</v>
       </c>
       <c r="X4" t="n">
-        <v>817.5685853659642</v>
+        <v>163.2822007406178</v>
       </c>
       <c r="Y4" t="n">
-        <v>817.5685853659642</v>
+        <v>163.2822007406178</v>
       </c>
     </row>
     <row r="5">
@@ -4544,46 +4544,46 @@
         <v>1071.886434413042</v>
       </c>
       <c r="C5" t="n">
-        <v>896.3981364376087</v>
+        <v>1071.886434413042</v>
       </c>
       <c r="D5" t="n">
-        <v>896.3981364376087</v>
+        <v>713.620735806292</v>
       </c>
       <c r="E5" t="n">
-        <v>510.6098838393645</v>
+        <v>713.620735806292</v>
       </c>
       <c r="F5" t="n">
-        <v>503.664383090161</v>
+        <v>302.6348310166845</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>289.587453293516</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>621.7125031813</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>1174.525761427499</v>
+        <v>616.7309383942948</v>
       </c>
       <c r="M5" t="n">
-        <v>1806.243572410811</v>
+        <v>1248.448749377606</v>
       </c>
       <c r="N5" t="n">
-        <v>2000.577785302793</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4644,19 +4644,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>238.9679910598655</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>743.329530925984</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>986.7313792423969</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N6" t="n">
-        <v>1638.905258545106</v>
+        <v>1718.162079368855</v>
       </c>
       <c r="O6" t="n">
         <v>2188.341267297829</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>986.6236443288815</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>779.1833595812868</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T7" t="n">
-        <v>779.1833595812868</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="U7" t="n">
-        <v>490.0311831589666</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="V7" t="n">
-        <v>490.0311831589666</v>
+        <v>460.0328667648788</v>
       </c>
       <c r="W7" t="n">
-        <v>200.614013122006</v>
+        <v>460.0328667648788</v>
       </c>
       <c r="X7" t="n">
-        <v>200.614013122006</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1254.663835044359</v>
+        <v>549.7686598367145</v>
       </c>
       <c r="C8" t="n">
-        <v>1254.663835044359</v>
+        <v>549.7686598367145</v>
       </c>
       <c r="D8" t="n">
-        <v>896.3981364376087</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="E8" t="n">
-        <v>510.6098838393645</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="F8" t="n">
-        <v>503.664383090161</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4022825530416</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L8" t="n">
-        <v>905.9224623138435</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M8" t="n">
-        <v>1537.640273297155</v>
+        <v>1508.435042357452</v>
       </c>
       <c r="N8" t="n">
-        <v>1731.974486189138</v>
+        <v>2000.577785302793</v>
       </c>
       <c r="O8" t="n">
-        <v>2279.135690956215</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4841,13 +4841,13 @@
         <v>1679.276487146762</v>
       </c>
       <c r="W8" t="n">
-        <v>1679.276487146762</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.803167020171</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y8" t="n">
-        <v>1254.663835044359</v>
+        <v>936.3684999008362</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>141.3486120962413</v>
+        <v>80.74572481091087</v>
       </c>
       <c r="K9" t="n">
-        <v>208.9564317595983</v>
+        <v>410.1741291167207</v>
       </c>
       <c r="L9" t="n">
-        <v>346.1860297752922</v>
+        <v>914.5356689828393</v>
       </c>
       <c r="M9" t="n">
-        <v>986.7313792423969</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N9" t="n">
-        <v>1638.905258545106</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.341267297829</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>230.2994257076298</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C10" t="n">
-        <v>230.2994257076298</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D10" t="n">
-        <v>230.2994257076298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>82.38633212523669</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>82.38633212523669</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>82.38633212523669</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4987,25 +4987,25 @@
         <v>922.1576397183603</v>
       </c>
       <c r="S10" t="n">
-        <v>922.1576397183603</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T10" t="n">
-        <v>922.1576397183603</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="U10" t="n">
-        <v>922.1576397183603</v>
+        <v>423.6101380954786</v>
       </c>
       <c r="V10" t="n">
-        <v>922.1576397183603</v>
+        <v>423.6101380954786</v>
       </c>
       <c r="W10" t="n">
-        <v>632.7404696813996</v>
+        <v>423.6101380954786</v>
       </c>
       <c r="X10" t="n">
-        <v>632.7404696813996</v>
+        <v>423.6101380954786</v>
       </c>
       <c r="Y10" t="n">
-        <v>411.9478905378695</v>
+        <v>202.8175589519486</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,10 +5033,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,7 +5045,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>3807.864035926977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>4435.461999481584</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>4435.461999481584</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1028.490320362745</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>859.5541374348384</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D16" t="n">
-        <v>709.4374980225026</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E16" t="n">
-        <v>561.5244044401095</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F16" t="n">
-        <v>414.6344569421974</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1430.931364336515</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>1210.138785192985</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1026.887310050512</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1654.485273605118</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2206.395003844405</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>580.8993044876688</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>432.9862109052757</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>449.4852666057155</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,10 +6260,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>808.8888553856862</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,28 +7327,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,22 +7555,22 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7849,7 +7849,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7988,16 +7988,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>364.6562871087579</v>
+        <v>198.5178009056016</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>18.53739690235813</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>177.2225680859462</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.51111991629089</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>300.8166970235944</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>292.1126504237868</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>64.55001208263437</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>313.8049245052655</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>292.1126504237866</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>300.8166970235947</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>95.77632897650251</v>
+        <v>34.56129131455263</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>458.0981188384286</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.1603092314733</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>317.5336584557159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>11.91237123911777</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.28980726757976</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>160.1994850723023</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.7173697524019</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>192.2667193610319</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>57.77135270963293</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0299597861359</v>
       </c>
       <c r="H4" t="n">
-        <v>153.6828348553325</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.41509635344511</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,16 +22753,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.2686478538544</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2666101070915</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>69.47507150177502</v>
+        <v>124.989927336801</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>68.29586847696697</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>105.2672314396031</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>38.36786441186848</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>64.74262662649478</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-3.785860641657541e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>135401.7127154575</v>
       </c>
       <c r="C2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="D2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="D2" t="n">
-        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
         <v>161429.3199380012</v>
@@ -26326,7 +26326,7 @@
         <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
         <v>161429.3199380013</v>
@@ -26335,16 +26335,16 @@
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="M2" t="n">
         <v>164208.3539728568</v>
-      </c>
-      <c r="M2" t="n">
-        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>734303.4749798379</v>
+        <v>734303.4749798374</v>
       </c>
       <c r="C3" t="n">
-        <v>55134.27828024318</v>
+        <v>55134.27828024352</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002809</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157138</v>
+        <v>128077.5968157137</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118923.607285676</v>
+        <v>118923.6072856761</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,37 +26424,37 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.42449670735</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.42449670741</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.424496707372</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707369</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707383</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707425</v>
-      </c>
       <c r="L4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="M4" t="n">
         <v>14888.28375980083</v>
       </c>
-      <c r="M4" t="n">
-        <v>14888.28375980085</v>
-      </c>
       <c r="N4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980089</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980089</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980083</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85298.15182533274</v>
+        <v>85298.15182533272</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-803123.5213753893</v>
+        <v>-803483.6043911063</v>
       </c>
       <c r="C6" t="n">
-        <v>-167435.8145664809</v>
+        <v>-167435.8145664812</v>
       </c>
       <c r="D6" t="n">
         <v>-112301.5362862378</v>
       </c>
       <c r="E6" t="n">
-        <v>-722278.9816591977</v>
+        <v>-722313.7195846334</v>
       </c>
       <c r="F6" t="n">
-        <v>53409.36561738675</v>
+        <v>53374.62769195106</v>
       </c>
       <c r="G6" t="n">
-        <v>53409.36561738675</v>
+        <v>53374.62769195111</v>
       </c>
       <c r="H6" t="n">
-        <v>53409.36561738678</v>
+        <v>53374.62769195116</v>
       </c>
       <c r="I6" t="n">
-        <v>53409.36561738672</v>
+        <v>53374.62769195101</v>
       </c>
       <c r="J6" t="n">
-        <v>-118951.626782894</v>
+        <v>-118986.3647083299</v>
       </c>
       <c r="K6" t="n">
-        <v>53409.36561738668</v>
+        <v>53374.62769195106</v>
       </c>
       <c r="L6" t="n">
-        <v>26728.23636550875</v>
+        <v>26728.23636550868</v>
       </c>
       <c r="M6" t="n">
-        <v>-81921.64245657336</v>
+        <v>-81921.64245657314</v>
       </c>
       <c r="N6" t="n">
-        <v>46155.95435914051</v>
+        <v>46155.95435914047</v>
       </c>
       <c r="O6" t="n">
-        <v>46155.95435914057</v>
+        <v>46155.95435914049</v>
       </c>
       <c r="P6" t="n">
-        <v>46155.95435914057</v>
+        <v>46155.95435914055</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.9290355608703</v>
+        <v>532.9290355608698</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.9290355608703</v>
+        <v>532.9290355608698</v>
       </c>
       <c r="C3" t="n">
-        <v>60.54706477719484</v>
+        <v>60.54706477719522</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>155.6908845697212</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>16.91033823329141</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.91033823329132</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.05524034186485</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.6828348553325</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>126.5499954250393</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.41509635344516</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.689758882003048</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>134.0824567889062</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>181.9965797267654</v>
       </c>
       <c r="T4" t="n">
-        <v>223.8394148919928</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>191.5394767753282</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>80.52321565885148</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>63.8213445644159</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>41.03568098811866</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>282.3789284142006</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>335.6025137531439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>141.0193800912339</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>221.4374146723216</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28330,19 +28330,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.142428283661789</v>
+        <v>2.142428283661787</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9411436600513</v>
+        <v>21.94114366005128</v>
       </c>
       <c r="I2" t="n">
-        <v>82.59596640587118</v>
+        <v>82.59596640587111</v>
       </c>
       <c r="J2" t="n">
-        <v>181.8359225404399</v>
+        <v>181.8359225404397</v>
       </c>
       <c r="K2" t="n">
-        <v>272.5249117878435</v>
+        <v>272.5249117878432</v>
       </c>
       <c r="L2" t="n">
-        <v>338.091251373958</v>
+        <v>338.0912513739577</v>
       </c>
       <c r="M2" t="n">
-        <v>376.1916603635283</v>
+        <v>376.1916603635279</v>
       </c>
       <c r="N2" t="n">
-        <v>382.2788347244824</v>
+        <v>382.278834724482</v>
       </c>
       <c r="O2" t="n">
-        <v>360.9750634788204</v>
+        <v>360.9750634788201</v>
       </c>
       <c r="P2" t="n">
-        <v>308.08386522592</v>
+        <v>308.0838652259197</v>
       </c>
       <c r="Q2" t="n">
-        <v>231.3581523172821</v>
+        <v>231.3581523172819</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5793106735699</v>
+        <v>134.5793106735698</v>
       </c>
       <c r="S2" t="n">
-        <v>48.82058451394305</v>
+        <v>48.82058451394301</v>
       </c>
       <c r="T2" t="n">
-        <v>9.378479811729484</v>
+        <v>9.378479811729475</v>
       </c>
       <c r="U2" t="n">
-        <v>0.171394262692943</v>
+        <v>0.1713942626929429</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.146300189696966</v>
+        <v>1.146300189696965</v>
       </c>
       <c r="H3" t="n">
-        <v>11.07084656891544</v>
+        <v>11.07084656891543</v>
       </c>
       <c r="I3" t="n">
-        <v>39.46691442597012</v>
+        <v>39.46691442597008</v>
       </c>
       <c r="J3" t="n">
-        <v>108.3002297643086</v>
+        <v>108.3002297643085</v>
       </c>
       <c r="K3" t="n">
-        <v>185.1023424740053</v>
+        <v>185.1023424740052</v>
       </c>
       <c r="L3" t="n">
-        <v>248.8929425041593</v>
+        <v>248.8929425041591</v>
       </c>
       <c r="M3" t="n">
-        <v>290.4463243806742</v>
+        <v>290.446324380674</v>
       </c>
       <c r="N3" t="n">
-        <v>298.1335743370193</v>
+        <v>298.1335743370191</v>
       </c>
       <c r="O3" t="n">
-        <v>272.7339753968918</v>
+        <v>272.7339753968915</v>
       </c>
       <c r="P3" t="n">
-        <v>218.8930599080111</v>
+        <v>218.8930599080109</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.3242136883356</v>
+        <v>146.3242136883354</v>
       </c>
       <c r="R3" t="n">
-        <v>71.17116440943097</v>
+        <v>71.1711644094309</v>
       </c>
       <c r="S3" t="n">
-        <v>21.29202326038004</v>
+        <v>21.29202326038002</v>
       </c>
       <c r="T3" t="n">
-        <v>4.620394185664525</v>
+        <v>4.62039418566452</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07541448616427412</v>
+        <v>0.07541448616427406</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9610195723228807</v>
+        <v>0.9610195723228798</v>
       </c>
       <c r="H4" t="n">
-        <v>8.544337652107073</v>
+        <v>8.544337652107066</v>
       </c>
       <c r="I4" t="n">
-        <v>28.900479502219</v>
+        <v>28.90047950221898</v>
       </c>
       <c r="J4" t="n">
-        <v>67.94408376322767</v>
+        <v>67.94408376322761</v>
       </c>
       <c r="K4" t="n">
-        <v>111.6530012207856</v>
+        <v>111.6530012207855</v>
       </c>
       <c r="L4" t="n">
-        <v>142.8774007797127</v>
+        <v>142.8774007797126</v>
       </c>
       <c r="M4" t="n">
-        <v>150.6441862323948</v>
+        <v>150.6441862323947</v>
       </c>
       <c r="N4" t="n">
-        <v>147.0622041901006</v>
+        <v>147.0622041901004</v>
       </c>
       <c r="O4" t="n">
-        <v>135.835748277056</v>
+        <v>135.8357482770558</v>
       </c>
       <c r="P4" t="n">
-        <v>116.2309490016691</v>
+        <v>116.230949001669</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.47228436969141</v>
+        <v>80.47228436969134</v>
       </c>
       <c r="R4" t="n">
-        <v>43.21093458826333</v>
+        <v>43.2109345882633</v>
       </c>
       <c r="S4" t="n">
-        <v>16.74795018311783</v>
+        <v>16.74795018311782</v>
       </c>
       <c r="T4" t="n">
-        <v>4.106174536288671</v>
+        <v>4.106174536288668</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05241924939942991</v>
+        <v>0.05241924939942987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9153144485695</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>520.3372160854087</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>484.1423712692491</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,22 +32786,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>235.5705495535876</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,19 +33029,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,19 +33266,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>673.7140351260975</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33503,7 +33503,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>271.1474903386692</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33755,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>253.1045048722855</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
-        <v>436.0678650906015</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,25 +34445,25 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.8866331858273</v>
+        <v>169.8866331858272</v>
       </c>
       <c r="K2" t="n">
-        <v>376.5804733140276</v>
+        <v>52.43506074286267</v>
       </c>
       <c r="L2" t="n">
-        <v>519.9860509544212</v>
+        <v>519.9860509544209</v>
       </c>
       <c r="M2" t="n">
-        <v>595.3589606290881</v>
+        <v>595.3589606290877</v>
       </c>
       <c r="N2" t="n">
-        <v>517.5220582366493</v>
+        <v>351.3835720334927</v>
       </c>
       <c r="O2" t="n">
-        <v>130.8768520571337</v>
+        <v>511.6770333198788</v>
       </c>
       <c r="P2" t="n">
-        <v>76.85086947065042</v>
+        <v>398.6495776421328</v>
       </c>
       <c r="Q2" t="n">
-        <v>221.3674531027373</v>
+        <v>9.052462442832422</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>107.5536384380506</v>
       </c>
       <c r="K3" t="n">
-        <v>311.7261405122249</v>
+        <v>311.7261405122248</v>
       </c>
       <c r="L3" t="n">
-        <v>481.1789080277443</v>
+        <v>481.1789080277441</v>
       </c>
       <c r="M3" t="n">
-        <v>614.0173542086559</v>
+        <v>614.0173542086557</v>
       </c>
       <c r="N3" t="n">
-        <v>646.1342365972396</v>
+        <v>344.014430339632</v>
       </c>
       <c r="O3" t="n">
-        <v>130.1377309524473</v>
+        <v>130.1377309524471</v>
       </c>
       <c r="P3" t="n">
-        <v>403.381421133618</v>
+        <v>403.3814211336178</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.85355951860494</v>
+        <v>216.419727338163</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>89.38350939490272</v>
+        <v>89.38350939490262</v>
       </c>
       <c r="L4" t="n">
-        <v>170.4674260400288</v>
+        <v>170.4674260400287</v>
       </c>
       <c r="M4" t="n">
-        <v>190.2280631942354</v>
+        <v>190.2280631942353</v>
       </c>
       <c r="N4" t="n">
-        <v>191.1943765693292</v>
+        <v>191.194376569329</v>
       </c>
       <c r="O4" t="n">
-        <v>160.4208761910956</v>
+        <v>160.4208761910955</v>
       </c>
       <c r="P4" t="n">
-        <v>113.5095082665626</v>
+        <v>113.5095082665625</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2138228565159</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>488.4098351631629</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>245.8604528448614</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>474.9284726555288</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>432.8486664250524</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>497.1138817629708</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>89.54312379457414</v>
+        <v>28.32808613262426</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
         <v>658.7614942451606</v>
@@ -35267,10 +35267,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P12" t="n">
-        <v>220.9409070342392</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>377.7409716409642</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>350.1679638549188</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,22 +36434,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>92.97430510914316</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>320.8355783388566</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>531.5800012040792</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>300.6896499849021</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>114.5501250924114</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
-        <v>302.0934576762713</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
